--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="335"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="303"/>
   </bookViews>
   <sheets>
     <sheet name="OP_OP_used_LCV" sheetId="1" state="visible" r:id="rId2"/>
@@ -1684,7 +1684,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.15"/>
@@ -1797,10 +1797,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -2010,10 +2010,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -2205,10 +2205,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -2400,10 +2400,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -2595,10 +2595,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -2790,10 +2790,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -2991,10 +2991,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -3204,10 +3204,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -3405,10 +3405,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -3618,10 +3618,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -3831,10 +3831,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -4044,10 +4044,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -4269,10 +4269,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -4482,10 +4482,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -4695,10 +4695,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -4908,10 +4908,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -5121,10 +5121,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -5322,10 +5322,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -5523,10 +5523,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -5724,10 +5724,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -5925,10 +5925,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -6126,10 +6126,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -6327,10 +6327,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -6534,7 +6534,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="0" width="11.57"/>
@@ -6644,7 +6644,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.86"/>
@@ -6809,7 +6809,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="17.86"/>
@@ -6986,7 +6986,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.86"/>
@@ -7148,7 +7148,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="17.86"/>
@@ -7325,7 +7325,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.86"/>
@@ -7487,7 +7487,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.86"/>
@@ -7649,7 +7649,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.15"/>
   </cols>
@@ -7806,7 +7806,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="23.15"/>
   </cols>
@@ -7982,7 +7982,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.15"/>
   </cols>
@@ -8139,10 +8139,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -8346,7 +8346,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="23.15"/>
   </cols>
@@ -8522,7 +8522,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.15"/>
   </cols>
@@ -8679,7 +8679,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="23.15"/>
   </cols>
@@ -8855,7 +8855,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.15"/>
   </cols>
@@ -9012,7 +9012,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="23.15"/>
   </cols>
@@ -9188,7 +9188,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.15"/>
   </cols>
@@ -9345,7 +9345,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="23.15"/>
   </cols>
@@ -9520,7 +9520,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.15"/>
   </cols>
@@ -9677,7 +9677,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="23.15"/>
   </cols>
@@ -9852,7 +9852,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.15"/>
   </cols>
@@ -10009,10 +10009,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -10216,7 +10216,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="23.15"/>
   </cols>
@@ -10392,7 +10392,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.15"/>
   </cols>
@@ -10549,7 +10549,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="23.15"/>
   </cols>
@@ -10725,7 +10725,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.18359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.15"/>
   </cols>
@@ -10882,7 +10882,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="23.15"/>
   </cols>
@@ -11057,7 +11057,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.15"/>
   </cols>
@@ -11214,7 +11214,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="23.15"/>
   </cols>
@@ -11389,10 +11389,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="27.71"/>
   </cols>
@@ -11573,10 +11573,10 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="27.71"/>
   </cols>
@@ -11769,10 +11769,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="27.71"/>
   </cols>
@@ -11965,10 +11965,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -12172,7 +12172,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -12308,7 +12308,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.71"/>
@@ -12466,7 +12466,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -12584,7 +12584,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -12720,7 +12720,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -12838,7 +12838,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -12974,7 +12974,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -13134,10 +13134,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="25.14"/>
   </cols>
@@ -13312,10 +13312,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="27.71"/>
   </cols>
@@ -13478,10 +13478,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="25.14"/>
   </cols>
@@ -13656,10 +13656,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -13863,10 +13863,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -14028,10 +14028,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="25.14"/>
   </cols>
@@ -14206,10 +14206,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -14371,10 +14371,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="25.14"/>
   </cols>
@@ -14549,10 +14549,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -14714,10 +14714,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="25.14"/>
   </cols>
@@ -14892,7 +14892,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -15058,10 +15058,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="25.14"/>
   </cols>
@@ -15242,7 +15242,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -15408,10 +15408,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="25.14"/>
   </cols>
@@ -15592,10 +15592,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -15799,10 +15799,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="27.71"/>
   </cols>
@@ -15971,10 +15971,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="25.14"/>
   </cols>
@@ -16155,7 +16155,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -16321,10 +16321,10 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="25.14"/>
   </cols>
@@ -16505,10 +16505,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="27.71"/>
   </cols>
@@ -16677,10 +16677,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="25.14"/>
   </cols>
@@ -16861,10 +16861,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="27.71"/>
   </cols>
@@ -17033,10 +17033,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="25.14"/>
   </cols>
@@ -17217,11 +17217,11 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -17431,10 +17431,10 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -17656,10 +17656,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -17863,10 +17863,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -18076,10 +18076,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -18301,10 +18301,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -18508,10 +18508,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -18715,10 +18715,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -18922,10 +18922,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -19129,10 +19129,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -19336,10 +19336,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -19543,10 +19543,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -19750,10 +19750,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.57"/>
   </cols>
@@ -19958,10 +19958,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.57"/>
   </cols>
@@ -20166,10 +20166,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -20379,10 +20379,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -20604,10 +20604,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -20817,10 +20817,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -21042,10 +21042,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -21267,10 +21267,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -21492,10 +21492,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -21717,10 +21717,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -21942,10 +21942,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -22167,10 +22167,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -22392,7 +22392,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.15"/>
@@ -22505,7 +22505,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -22698,10 +22698,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -22911,10 +22911,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -23124,10 +23124,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -23337,10 +23337,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -23550,10 +23550,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -23763,10 +23763,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -23976,7 +23976,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="0" width="23.15"/>
   </cols>
@@ -24145,7 +24145,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="0" width="23.15"/>
   </cols>
@@ -24332,7 +24332,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="0" width="23.15"/>
   </cols>
@@ -24501,7 +24501,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="0" width="23.15"/>
   </cols>
@@ -24688,7 +24688,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -24881,7 +24881,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="0" width="23.15"/>
   </cols>
@@ -25050,7 +25050,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="0" width="23.15"/>
   </cols>
@@ -25238,7 +25238,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="0" width="23.15"/>
   </cols>
@@ -25407,7 +25407,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="0" width="23.15"/>
   </cols>
@@ -25595,7 +25595,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="0" width="23.15"/>
   </cols>
@@ -25783,7 +25783,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="0" width="23.15"/>
   </cols>
@@ -25952,7 +25952,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="0" width="23.15"/>
   </cols>
@@ -26140,7 +26140,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="0" width="23.15"/>
   </cols>
@@ -26309,7 +26309,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="0" width="23.15"/>
   </cols>
@@ -26478,7 +26478,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="0" width="23.15"/>
   </cols>
@@ -26666,7 +26666,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="0" width="11.57"/>
   </cols>
@@ -26871,7 +26871,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="0" width="23.15"/>
   </cols>
@@ -27040,7 +27040,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="0" width="23.15"/>
   </cols>
@@ -27228,7 +27228,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="0" width="23.15"/>
   </cols>
@@ -27397,7 +27397,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="0" width="23.15"/>
   </cols>
@@ -27584,7 +27584,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="0" width="23.15"/>
   </cols>
@@ -27753,7 +27753,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="0" width="23.15"/>
   </cols>
@@ -27940,12 +27940,12 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23.71"/>
   </cols>
@@ -28096,7 +28096,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="23.71"/>
@@ -28266,7 +28266,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -28396,7 +28396,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -28544,7 +28544,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="0" width="11.57"/>
   </cols>
@@ -28749,7 +28749,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -28942,7 +28942,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -29135,7 +29135,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="0" width="11.57"/>
   </cols>
@@ -29340,7 +29340,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="0" width="11.57"/>
   </cols>
@@ -29545,7 +29545,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -29708,7 +29708,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="0" width="11.57"/>
   </cols>
@@ -29883,7 +29883,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -30046,7 +30046,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -30209,7 +30209,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="0" width="11.57"/>
   </cols>
@@ -30384,7 +30384,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -30547,10 +30547,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -30760,7 +30760,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="0" width="11.57"/>
   </cols>
@@ -30935,7 +30935,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -31098,7 +31098,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="0" width="11.57"/>
   </cols>
@@ -31273,7 +31273,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="0" width="11.57"/>
   </cols>
@@ -31448,7 +31448,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -31611,7 +31611,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="0" width="11.57"/>
   </cols>
@@ -31786,7 +31786,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -31949,7 +31949,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="0" width="11.57"/>
   </cols>
@@ -32124,7 +32124,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="0" width="11.57"/>
   </cols>
@@ -32299,7 +32299,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -32462,10 +32462,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -32687,7 +32687,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="0" width="11.57"/>
   </cols>
@@ -32862,7 +32862,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="0" width="11.57"/>
@@ -32972,10 +32972,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -33185,10 +33185,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -33398,10 +33398,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -33599,10 +33599,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -33800,10 +33800,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -34013,10 +34013,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -34226,10 +34226,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -34427,10 +34427,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -34628,10 +34628,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -34841,10 +34841,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -35036,10 +35036,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -35231,10 +35231,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -35426,10 +35426,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -35621,10 +35621,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -35816,10 +35816,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -36011,10 +36011,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -36206,10 +36206,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -36401,10 +36401,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -36602,10 +36602,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -36803,10 +36803,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -37028,10 +37028,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -37229,10 +37229,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -37430,10 +37430,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -37631,10 +37631,10 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -37832,10 +37832,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -38045,10 +38045,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -38258,10 +38258,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -38471,10 +38471,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -38684,10 +38684,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -38897,10 +38897,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -39110,10 +39110,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -39335,10 +39335,10 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -39500,10 +39500,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="27.71"/>
   </cols>
@@ -39684,10 +39684,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="27.71"/>
   </cols>
@@ -39880,10 +39880,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="27.71"/>
   </cols>
@@ -40076,10 +40076,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="27.71"/>
   </cols>
@@ -40260,7 +40260,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.15"/>
   </cols>
@@ -40417,7 +40417,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="23.15"/>
   </cols>
@@ -40593,7 +40593,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="23.15"/>
   </cols>
@@ -40769,7 +40769,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.15"/>
   </cols>
@@ -40926,7 +40926,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -41086,10 +41086,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -41311,10 +41311,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="25.14"/>
   </cols>
@@ -41489,10 +41489,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="27.71"/>
   </cols>
@@ -41655,10 +41655,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="25.14"/>
   </cols>
@@ -41833,7 +41833,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="23.15"/>
   </cols>
@@ -42009,7 +42009,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.15"/>
   </cols>
@@ -42166,7 +42166,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="23.15"/>
   </cols>
@@ -42342,7 +42342,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.15"/>
   </cols>
@@ -42499,7 +42499,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="23.15"/>
   </cols>
@@ -42674,7 +42674,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.18359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.15"/>
   </cols>
@@ -42831,7 +42831,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.15"/>
   </cols>
@@ -42988,7 +42988,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="17.86"/>
@@ -43162,10 +43162,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -43387,7 +43387,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="23.15"/>
   </cols>
@@ -43562,7 +43562,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -43728,10 +43728,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="25.14"/>
   </cols>
@@ -43912,10 +43912,10 @@
       <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="25.14"/>
   </cols>
@@ -44092,14 +44092,14 @@
   </sheetPr>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="27.71"/>
   </cols>
@@ -44231,7 +44231,7 @@
         <v>64</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>200</v>
@@ -44264,14 +44264,14 @@
   </sheetPr>
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="25.14"/>
   </cols>
@@ -44448,14 +44448,14 @@
   </sheetPr>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="27.71"/>
   </cols>
@@ -44587,7 +44587,7 @@
         <v>64</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>200</v>
@@ -44624,10 +44624,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="25.14"/>
   </cols>
@@ -44802,10 +44802,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="25.14"/>
   </cols>
@@ -44980,10 +44980,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="25.14"/>
   </cols>
@@ -45158,10 +45158,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -45383,10 +45383,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -45548,10 +45548,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -45713,7 +45713,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.57"/>
@@ -45883,7 +45883,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="23.15"/>
   </cols>
@@ -46034,7 +46034,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -46170,7 +46170,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="23.15"/>
   </cols>
@@ -46346,7 +46346,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="23.15"/>
   </cols>
@@ -46522,7 +46522,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.15"/>
   </cols>
@@ -46679,7 +46679,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="23.15"/>
   </cols>
@@ -46854,7 +46854,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="23.15"/>
   </cols>
@@ -47029,10 +47029,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -47254,7 +47254,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.15"/>
   </cols>
@@ -47411,7 +47411,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.15"/>
   </cols>
@@ -47568,7 +47568,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="17.86"/>
@@ -47745,7 +47745,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="17.86"/>
@@ -47922,7 +47922,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.86"/>
@@ -48084,7 +48084,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.86"/>
@@ -48246,7 +48246,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.86"/>
@@ -48408,10 +48408,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="27.71"/>
   </cols>
@@ -48556,13 +48556,13 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.57"/>
   </cols>
   <sheetData>
@@ -48724,7 +48724,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.71"/>
@@ -48906,10 +48906,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -49131,7 +49131,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.71"/>
@@ -49289,7 +49289,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -49449,13 +49449,13 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.57"/>
   </cols>
   <sheetData>
@@ -49599,7 +49599,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -49759,12 +49759,12 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49901,13 +49901,13 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.57"/>
   </cols>
   <sheetData>
@@ -50047,11 +50047,11 @@
   </sheetPr>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.86"/>
@@ -50216,7 +50216,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -50352,7 +50352,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -50470,7 +50470,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -50606,10 +50606,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -50819,10 +50819,10 @@
       <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="25.14"/>
   </cols>
@@ -51003,7 +51003,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -51169,7 +51169,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -51335,10 +51335,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="25.14"/>
   </cols>
@@ -51519,10 +51519,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="27.71"/>
   </cols>
@@ -51691,10 +51691,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="25.14"/>
   </cols>
@@ -51875,7 +51875,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -51993,7 +51993,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.28"/>
@@ -52107,7 +52107,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.15"/>
   </cols>
@@ -52264,7 +52264,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -52400,10 +52400,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -52613,10 +52613,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -52826,10 +52826,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -53039,10 +53039,10 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -53252,10 +53252,10 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -53465,7 +53465,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="17.86"/>
@@ -53654,7 +53654,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="21.57"/>
@@ -53829,7 +53829,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="0" width="23.15"/>
   </cols>
@@ -54017,7 +54017,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="0" width="23.15"/>
   </cols>
@@ -54186,7 +54186,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="0" width="23.15"/>
   </cols>
@@ -54374,7 +54374,7 @@
       <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="0" width="23.15"/>
   </cols>
@@ -54543,7 +54543,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="0" width="23.15"/>
   </cols>
@@ -54712,7 +54712,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="0" width="23.15"/>
   </cols>
@@ -54899,7 +54899,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="0" width="23.15"/>
   </cols>
@@ -55068,7 +55068,7 @@
       <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="0" width="23.15"/>
   </cols>
@@ -55255,7 +55255,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="0" width="23.15"/>
   </cols>
@@ -55424,7 +55424,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="21.57"/>
@@ -55599,7 +55599,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="0" width="23.15"/>
   </cols>
@@ -55787,7 +55787,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="0" width="23.15"/>
   </cols>
@@ -55956,7 +55956,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="0" width="23.15"/>
   </cols>
@@ -56144,7 +56144,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="0" width="23.15"/>
   </cols>
@@ -56313,7 +56313,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="0" width="23.15"/>
   </cols>
@@ -56501,7 +56501,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="0" width="23.15"/>
   </cols>
@@ -56670,7 +56670,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="0" width="23.15"/>
   </cols>
@@ -56858,7 +56858,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="0" width="23.15"/>
   </cols>
@@ -57027,7 +57027,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="0" width="23.15"/>
   </cols>
@@ -57214,7 +57214,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="0" width="23.15"/>
   </cols>
@@ -57383,7 +57383,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="17.86"/>
@@ -57557,7 +57557,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="0" width="23.15"/>
   </cols>
@@ -57744,12 +57744,12 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23.71"/>
   </cols>
@@ -57900,7 +57900,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="23.71"/>
@@ -58070,7 +58070,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -58200,7 +58200,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -58348,7 +58348,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -58511,7 +58511,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="0" width="11.57"/>
   </cols>
@@ -58686,7 +58686,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -58849,7 +58849,7 @@
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -59012,7 +59012,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="0" width="11.57"/>
   </cols>
@@ -59187,7 +59187,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="17.86"/>
@@ -59376,7 +59376,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -59539,7 +59539,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="0" width="11.57"/>
   </cols>
@@ -59714,7 +59714,7 @@
       <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -59877,7 +59877,7 @@
       <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="0" width="11.57"/>
   </cols>
@@ -60052,7 +60052,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -60215,7 +60215,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="0" width="11.57"/>
   </cols>
@@ -60390,7 +60390,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -60553,7 +60553,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="0" width="11.57"/>
   </cols>
@@ -60728,7 +60728,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -60891,7 +60891,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="0" width="11.57"/>
   </cols>
@@ -61066,10 +61066,10 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -61279,7 +61279,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -61442,7 +61442,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="0" width="11.57"/>
   </cols>
@@ -61617,7 +61617,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -61780,7 +61780,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="0" width="11.57"/>
   </cols>
@@ -61955,7 +61955,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -62118,7 +62118,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="0" width="11.57"/>
   </cols>
@@ -62293,7 +62293,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -62456,7 +62456,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="0" width="11.57"/>
   </cols>
@@ -62631,7 +62631,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -62794,7 +62794,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="0" width="11.57"/>
   </cols>
@@ -62969,10 +62969,10 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -63194,7 +63194,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="0" width="11.57"/>
   </cols>
@@ -63357,7 +63357,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="0" width="11.57"/>
   </cols>
@@ -63532,10 +63532,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -63733,10 +63733,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -63946,10 +63946,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -64147,10 +64147,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -64360,10 +64360,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -64555,10 +64555,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -64750,10 +64750,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>
@@ -64945,10 +64945,10 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
   </cols>
   <sheetData>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="264"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="345"/>
   </bookViews>
   <sheets>
     <sheet name="OP_OP_used_LCV" sheetId="1" state="visible" r:id="rId2"/>
@@ -357,6 +357,7 @@
     <sheet name="audibrokerHPR" sheetId="347" state="visible" r:id="rId348"/>
     <sheet name="OutrightHPNRwithoutMaintenance" sheetId="348" state="visible" r:id="rId349"/>
     <sheet name="BrokerFLwithoutMaintenance" sheetId="349" state="visible" r:id="rId350"/>
+    <sheet name="OP-OP" sheetId="350" state="visible" r:id="rId351"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -1688,7 +1689,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.08"/>
@@ -1802,7 +1803,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -2015,7 +2016,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2210,7 +2211,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2405,7 +2406,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2600,7 +2601,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2795,7 +2796,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2996,7 +2997,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -3209,7 +3210,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3410,7 +3411,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -3623,7 +3624,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -3836,7 +3837,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4049,7 +4050,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -4274,7 +4275,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4487,7 +4488,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4700,7 +4701,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4913,7 +4914,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -5126,7 +5127,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5327,7 +5328,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5528,7 +5529,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5729,7 +5730,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5930,7 +5931,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6131,7 +6132,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6332,7 +6333,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -6539,7 +6540,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="1" width="11.52"/>
@@ -6649,7 +6650,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -6814,7 +6815,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -6991,7 +6992,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7153,7 +7154,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -7330,7 +7331,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7492,7 +7493,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7654,7 +7655,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -7811,7 +7812,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -7987,7 +7988,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8144,7 +8145,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -8351,7 +8352,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -8527,7 +8528,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8684,7 +8685,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -8860,7 +8861,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9017,7 +9018,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9193,7 +9194,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9350,7 +9351,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9525,7 +9526,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9682,7 +9683,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9857,7 +9858,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -10014,7 +10015,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -10221,7 +10222,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -10397,7 +10398,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -10554,7 +10555,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -10730,7 +10731,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.30078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.08"/>
   </cols>
@@ -10887,7 +10888,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11062,7 +11063,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -11219,7 +11220,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11394,7 +11395,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -11578,7 +11579,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -11774,7 +11775,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -11970,7 +11971,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -12177,7 +12178,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12313,7 +12314,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.66"/>
@@ -12471,7 +12472,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12589,7 +12590,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12725,7 +12726,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12843,7 +12844,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12979,7 +12980,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13139,7 +13140,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -13317,7 +13318,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -13483,7 +13484,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -13661,7 +13662,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -13868,7 +13869,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -14033,7 +14034,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14211,7 +14212,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -14376,7 +14377,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14554,7 +14555,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -14719,7 +14720,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14897,7 +14898,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15063,7 +15064,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -15247,7 +15248,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15413,7 +15414,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -15597,7 +15598,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -15804,7 +15805,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -15976,7 +15977,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16160,7 +16161,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16326,7 +16327,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16510,7 +16511,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -16682,7 +16683,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16866,7 +16867,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -17038,7 +17039,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -17222,7 +17223,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
@@ -17436,7 +17437,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -17661,7 +17662,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -17868,7 +17869,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -18081,7 +18082,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -18306,7 +18307,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -18513,7 +18514,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -18720,7 +18721,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -18927,7 +18928,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19134,7 +19135,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19341,7 +19342,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19548,7 +19549,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19755,7 +19756,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19963,7 +19964,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20171,7 +20172,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20384,7 +20385,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -20609,7 +20610,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20822,7 +20823,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21047,7 +21048,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21272,7 +21273,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21497,7 +21498,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21722,7 +21723,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21947,7 +21948,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22172,7 +22173,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22397,7 +22398,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.08"/>
@@ -22511,7 +22512,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -22704,7 +22705,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -22917,7 +22918,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23130,7 +23131,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23343,7 +23344,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23556,7 +23557,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23769,7 +23770,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23982,7 +23983,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -24151,7 +24152,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -24338,7 +24339,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -24507,7 +24508,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -24694,7 +24695,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -24887,7 +24888,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -25056,7 +25057,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25244,7 +25245,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -25413,7 +25414,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25601,7 +25602,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25789,7 +25790,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -25958,7 +25959,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -26146,7 +26147,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26315,7 +26316,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26484,7 +26485,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -26672,7 +26673,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -26877,7 +26878,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -27046,7 +27047,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27234,7 +27235,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -27403,7 +27404,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27590,7 +27591,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -27759,7 +27760,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27946,7 +27947,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.92"/>
@@ -28102,7 +28103,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.66"/>
@@ -28272,7 +28273,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -28402,7 +28403,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -28550,7 +28551,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -28755,7 +28756,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -28948,7 +28949,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -29141,7 +29142,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -29346,7 +29347,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -29551,7 +29552,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -29714,7 +29715,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -29889,7 +29890,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30052,7 +30053,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30215,7 +30216,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -30390,7 +30391,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30553,7 +30554,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -30766,7 +30767,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -30941,7 +30942,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31104,7 +31105,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31279,7 +31280,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31454,7 +31455,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31617,7 +31618,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31792,7 +31793,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31955,7 +31956,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32130,7 +32131,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32305,7 +32306,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -32468,7 +32469,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -32693,7 +32694,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32868,7 +32869,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="1" width="11.52"/>
@@ -32978,7 +32979,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -33088,7 +33089,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -33191,7 +33192,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -33301,7 +33302,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -33404,7 +33405,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -33508,7 +33509,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -33601,11 +33602,11 @@
   </sheetPr>
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -33709,7 +33710,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -33806,7 +33807,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -33916,7 +33917,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -34019,7 +34020,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -34129,7 +34130,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -34232,7 +34233,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -34336,7 +34337,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -34433,7 +34434,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -34537,7 +34538,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -34634,7 +34635,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -34847,7 +34848,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -34948,7 +34949,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -35042,7 +35043,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35143,7 +35144,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -35237,7 +35238,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35338,7 +35339,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -35432,7 +35433,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35533,7 +35534,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -35623,11 +35624,11 @@
   </sheetPr>
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35728,7 +35729,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -35818,11 +35819,11 @@
   </sheetPr>
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35923,7 +35924,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -36017,7 +36018,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36118,7 +36119,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -36212,7 +36213,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36313,7 +36314,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -36407,7 +36408,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36511,7 +36512,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -36608,7 +36609,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36712,7 +36713,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -36809,7 +36810,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -37034,7 +37035,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37138,7 +37139,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -37235,7 +37236,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37339,7 +37340,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -37436,7 +37437,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37540,7 +37541,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -37634,10 +37635,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37741,7 +37742,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -37838,7 +37839,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -37948,7 +37949,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -38051,7 +38052,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38161,7 +38162,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -38264,7 +38265,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38374,7 +38375,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -38477,7 +38478,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38587,7 +38588,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -38690,7 +38691,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38800,7 +38801,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -38903,7 +38904,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -39013,7 +39014,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -39116,7 +39117,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -39341,7 +39342,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -39506,7 +39507,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -39690,7 +39691,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -39886,7 +39887,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -40082,7 +40083,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -40266,7 +40267,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -40423,7 +40424,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -40599,7 +40600,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -40775,7 +40776,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -40932,7 +40933,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -41092,7 +41093,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -41317,7 +41318,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -41495,7 +41496,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -41661,7 +41662,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -41839,7 +41840,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42015,7 +42016,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -42172,7 +42173,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42348,7 +42349,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -42505,7 +42506,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42680,7 +42681,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.30078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.08"/>
   </cols>
@@ -42837,7 +42838,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -42994,7 +42995,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -43168,7 +43169,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -43393,7 +43394,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -43568,7 +43569,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -43734,7 +43735,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -43918,7 +43919,7 @@
       <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44102,7 +44103,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -44274,7 +44275,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44458,7 +44459,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -44630,7 +44631,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -44808,7 +44809,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -44986,7 +44987,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45164,7 +45165,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -45389,7 +45390,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -45554,7 +45555,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -45719,7 +45720,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
@@ -45889,7 +45890,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="1" width="23.08"/>
   </cols>
@@ -46040,7 +46041,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -46176,7 +46177,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -46352,7 +46353,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -46528,7 +46529,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -46685,7 +46686,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -46860,7 +46861,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -47035,7 +47036,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -47260,7 +47261,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -47417,7 +47418,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -47574,7 +47575,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -47751,7 +47752,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -47928,7 +47929,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48090,7 +48091,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48252,7 +48253,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48414,7 +48415,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -48562,7 +48563,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -48660,7 +48661,7 @@
         <v>35</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>12</v>
@@ -48730,7 +48731,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23.66"/>
@@ -48912,7 +48913,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -49137,7 +49138,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.66"/>
@@ -49295,7 +49296,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -49455,7 +49456,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -49605,7 +49606,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -49765,7 +49766,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -49907,7 +49908,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -49996,7 +49997,7 @@
         <v>35</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>12</v>
@@ -50057,7 +50058,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -50149,7 +50150,7 @@
         <v>35</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -50222,7 +50223,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50291,7 +50292,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -50358,7 +50359,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50418,7 +50419,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -50476,7 +50477,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50545,7 +50546,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -50612,7 +50613,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -50825,7 +50826,7 @@
       <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -51009,7 +51010,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51175,7 +51176,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51341,7 +51342,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -51525,7 +51526,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -51697,7 +51698,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -51877,11 +51878,11 @@
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51941,7 +51942,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45058</v>
+        <v>45424</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -51999,7 +52000,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
@@ -52114,7 +52115,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -52271,7 +52272,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -52407,7 +52408,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -52596,6 +52597,46 @@
       </c>
       <c r="AD2" s="1" t="s">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet350.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>1202100</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>153516</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>561516</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>5165651</v>
       </c>
     </row>
   </sheetData>
@@ -52620,7 +52661,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -52833,7 +52874,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53046,7 +53087,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53259,7 +53300,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53472,7 +53513,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.83"/>
@@ -53661,7 +53702,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="21.57"/>
@@ -53836,7 +53877,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -54024,7 +54065,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -54193,7 +54234,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -54381,7 +54422,7 @@
       <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -54550,7 +54591,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -54719,7 +54760,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -54906,7 +54947,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55075,7 +55116,7 @@
       <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -55262,7 +55303,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55431,7 +55472,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="21.57"/>
@@ -55606,7 +55647,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -55794,7 +55835,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55963,7 +56004,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56151,7 +56192,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56320,7 +56361,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56508,7 +56549,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56677,7 +56718,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56865,7 +56906,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -57034,7 +57075,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -57221,7 +57262,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -57390,7 +57431,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -57564,7 +57605,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -57751,7 +57792,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.92"/>
@@ -57907,7 +57948,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.66"/>
@@ -58077,7 +58118,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -58207,7 +58248,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -58355,7 +58396,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -58518,7 +58559,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -58693,7 +58734,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -58856,7 +58897,7 @@
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59019,7 +59060,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -59194,7 +59235,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.83"/>
@@ -59383,7 +59424,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59546,7 +59587,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -59721,7 +59762,7 @@
       <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59884,7 +59925,7 @@
       <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60059,7 +60100,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60222,7 +60263,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60397,7 +60438,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60560,7 +60601,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60735,7 +60776,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60898,7 +60939,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -61073,7 +61114,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -61286,7 +61327,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61449,7 +61490,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -61624,7 +61665,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61787,7 +61828,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -61962,7 +62003,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62125,7 +62166,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62300,7 +62341,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62463,7 +62504,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62638,7 +62679,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62801,7 +62842,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62976,7 +63017,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -63201,7 +63242,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -63364,7 +63405,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63539,7 +63580,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -63740,7 +63781,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -63953,7 +63994,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -64154,7 +64195,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -64367,7 +64408,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -64562,7 +64603,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -64757,7 +64798,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -64952,7 +64993,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="345"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="305"/>
   </bookViews>
   <sheets>
     <sheet name="OP_OP_used_LCV" sheetId="1" state="visible" r:id="rId2"/>
@@ -945,7 +945,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10546" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10546" uniqueCount="205">
   <si>
     <t xml:space="preserve">registrationNumber</t>
   </si>
@@ -1529,6 +1529,12 @@
     <t xml:space="preserve">A7</t>
   </si>
   <si>
+    <t xml:space="preserve">BMW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 SERIES</t>
+  </si>
+  <si>
     <t xml:space="preserve">otrPriceForInvoice</t>
   </si>
   <si>
@@ -1686,10 +1692,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.08"/>
@@ -1800,10 +1806,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -2013,10 +2019,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2208,10 +2214,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2403,10 +2409,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2598,10 +2604,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2793,10 +2799,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2994,10 +3000,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -3207,10 +3213,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3408,10 +3414,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -3621,10 +3627,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -3834,10 +3840,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4047,10 +4053,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -4272,10 +4278,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4485,10 +4491,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4698,10 +4704,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4911,10 +4917,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -5124,10 +5130,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5325,10 +5331,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5526,10 +5532,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5727,10 +5733,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5928,10 +5934,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6129,10 +6135,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6330,10 +6336,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -6537,10 +6543,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="1" width="11.52"/>
@@ -6647,10 +6653,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -6812,10 +6818,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -6989,10 +6995,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7151,10 +7157,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -7328,10 +7334,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7490,10 +7496,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7652,10 +7658,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="A2:B2 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -7809,10 +7815,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -7985,10 +7991,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8142,10 +8148,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -8349,10 +8355,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -8525,10 +8531,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8682,10 +8688,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -8858,10 +8864,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9015,10 +9021,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9191,10 +9197,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9348,10 +9354,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9523,10 +9529,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9680,10 +9686,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9855,10 +9861,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -10012,10 +10018,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -10219,10 +10225,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -10395,10 +10401,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -10552,10 +10558,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -10728,10 +10734,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.08"/>
   </cols>
@@ -10885,10 +10891,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11060,10 +11066,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -11217,10 +11223,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11392,10 +11398,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -11576,10 +11582,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -11772,10 +11778,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -11968,10 +11974,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -12175,10 +12181,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12311,10 +12317,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.66"/>
@@ -12469,10 +12475,10 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12587,10 +12593,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12723,10 +12729,10 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12841,10 +12847,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12977,10 +12983,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13137,10 +13143,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -13315,10 +13321,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -13481,10 +13487,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -13659,10 +13665,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -13866,10 +13872,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -14031,10 +14037,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14209,10 +14215,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -14374,10 +14380,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14552,10 +14558,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -14717,10 +14723,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14895,10 +14901,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15061,10 +15067,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -15245,10 +15251,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15411,10 +15417,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -15595,10 +15601,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -15802,10 +15808,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -15974,10 +15980,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16158,10 +16164,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16324,10 +16330,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="A2:B2 E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16508,10 +16514,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -16680,10 +16686,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16864,10 +16870,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -17036,10 +17042,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -17220,10 +17226,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
@@ -17434,10 +17440,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -17659,10 +17665,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -17866,10 +17872,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -18079,10 +18085,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -18304,10 +18310,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -18511,10 +18517,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -18718,10 +18724,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -18925,10 +18931,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19132,10 +19138,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19339,10 +19345,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19546,10 +19552,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19753,10 +19759,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19961,10 +19967,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20169,10 +20175,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20382,10 +20388,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -20607,10 +20613,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20820,10 +20826,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21045,10 +21051,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21270,10 +21276,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21495,10 +21501,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21720,10 +21726,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21945,10 +21951,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22170,10 +22176,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22395,10 +22401,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.08"/>
@@ -22509,10 +22515,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -22702,10 +22708,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -22915,10 +22921,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23128,10 +23134,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23341,10 +23347,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23554,10 +23560,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23767,10 +23773,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23980,10 +23986,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="A2:B2 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -24149,10 +24155,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -24336,10 +24342,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -24505,10 +24511,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -24692,10 +24698,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -24885,10 +24891,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -25054,10 +25060,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25242,10 +25248,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -25411,10 +25417,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25599,10 +25605,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25787,10 +25793,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -25956,10 +25962,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -26144,10 +26150,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26313,10 +26319,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26482,10 +26488,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -26670,10 +26676,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -26875,10 +26881,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -27044,10 +27050,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27232,10 +27238,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -27401,10 +27407,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27588,10 +27594,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -27757,10 +27763,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27944,10 +27950,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.92"/>
@@ -28100,10 +28106,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.66"/>
@@ -28270,10 +28276,10 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -28400,10 +28406,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -28548,10 +28554,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -28753,10 +28759,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -28946,10 +28952,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -29139,10 +29145,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -29344,10 +29350,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -29549,10 +29555,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -29712,10 +29718,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -29887,10 +29893,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30050,10 +30056,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30213,10 +30219,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -30388,10 +30394,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30551,10 +30557,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -30764,10 +30770,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -30939,10 +30945,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31102,10 +31108,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31277,10 +31283,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31452,10 +31458,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31615,10 +31621,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31790,10 +31796,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31953,10 +31959,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32128,10 +32134,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32303,10 +32309,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -32466,10 +32472,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -32691,10 +32697,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32866,10 +32872,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="1" width="11.52"/>
@@ -32976,10 +32982,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -33189,10 +33195,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -33402,10 +33408,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -33603,10 +33609,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -33804,10 +33810,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -34017,10 +34023,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -34230,10 +34236,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -34431,10 +34437,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -34632,10 +34638,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -34845,10 +34851,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35040,10 +35046,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35235,10 +35241,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35430,10 +35436,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35625,10 +35631,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35820,10 +35826,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36015,10 +36021,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36210,10 +36216,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36405,10 +36411,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36606,10 +36612,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36807,10 +36813,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -37032,10 +37038,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37233,10 +37239,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37434,10 +37440,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37635,10 +37641,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37836,10 +37842,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38049,10 +38055,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38262,10 +38268,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38475,10 +38481,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38688,10 +38694,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38901,10 +38907,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -39114,10 +39120,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -39339,10 +39345,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A2:B2 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -39504,10 +39510,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -39688,10 +39694,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -39884,10 +39890,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -40080,10 +40086,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -40264,10 +40270,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -40421,10 +40427,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -40597,10 +40603,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -40773,10 +40779,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -40930,10 +40936,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -41090,10 +41096,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -41315,10 +41321,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -41493,10 +41499,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -41659,10 +41665,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -41837,10 +41843,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42013,10 +42019,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -42088,10 +42094,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>50000</v>
@@ -42170,10 +42176,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42346,10 +42352,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -42503,10 +42509,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42678,10 +42684,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.08"/>
   </cols>
@@ -42835,10 +42841,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -42910,10 +42916,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>50000</v>
@@ -42992,10 +42998,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="A2:B2 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -43166,10 +43172,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -43391,10 +43397,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topLeft" activeCell="Q1" activeCellId="1" sqref="A2:B2 Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -43566,10 +43572,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -43732,10 +43738,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -43916,10 +43922,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
+      <selection pane="topLeft" activeCell="X2" activeCellId="1" sqref="A2:B2 X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44100,10 +44106,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -44184,10 +44190,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -44272,10 +44278,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A2:B2 G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44455,11 +44461,11 @@
   </sheetPr>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -44540,10 +44546,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -44628,10 +44634,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -44806,10 +44812,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -44984,10 +44990,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45162,10 +45168,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -45387,10 +45393,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -45552,10 +45558,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -45717,10 +45723,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
@@ -45887,10 +45893,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="1" width="23.08"/>
   </cols>
@@ -46038,10 +46044,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -46174,10 +46180,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -46350,10 +46356,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -46526,10 +46532,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -46683,10 +46689,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -46858,10 +46864,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -47033,10 +47039,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -47258,10 +47264,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -47415,10 +47421,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -47572,10 +47578,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -47749,10 +47755,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -47926,10 +47932,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48088,10 +48094,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48250,10 +48256,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48412,10 +48418,10 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -48560,10 +48566,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="A2:B2 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -48587,7 +48593,7 @@
         <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
@@ -48629,7 +48635,7 @@
         <v>33</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>125</v>
@@ -48728,10 +48734,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="A2:B2 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23.66"/>
@@ -48751,7 +48757,7 @@
         <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
@@ -48793,7 +48799,7 @@
         <v>96</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>32</v>
@@ -48802,7 +48808,7 @@
         <v>33</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>125</v>
@@ -48910,10 +48916,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -49135,10 +49141,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.66"/>
@@ -49293,10 +49299,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="A2:B2 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -49312,7 +49318,7 @@
         <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
@@ -49354,7 +49360,7 @@
         <v>33</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>125</v>
@@ -49453,10 +49459,10 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="A2:B2 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -49480,7 +49486,7 @@
         <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
@@ -49513,7 +49519,7 @@
         <v>33</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>125</v>
@@ -49603,10 +49609,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="A2:B2 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -49622,7 +49628,7 @@
         <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
@@ -49664,7 +49670,7 @@
         <v>33</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>125</v>
@@ -49763,10 +49769,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="1" sqref="A2:B2 K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -49794,13 +49800,13 @@
         <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>111</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>18</v>
@@ -49905,10 +49911,10 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="A2:B2 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -49932,7 +49938,7 @@
         <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
@@ -49965,7 +49971,7 @@
         <v>33</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>125</v>
@@ -50055,10 +50061,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -50220,10 +50226,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50356,10 +50362,10 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50474,10 +50480,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50610,10 +50616,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -50823,10 +50829,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
+      <selection pane="topLeft" activeCell="Y1" activeCellId="1" sqref="A2:B2 Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -51007,10 +51013,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51173,10 +51179,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51339,10 +51345,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -51523,10 +51529,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -51695,10 +51701,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -51878,11 +51884,11 @@
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51997,10 +52003,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
@@ -52031,16 +52037,16 @@
         <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>27</v>
@@ -52049,7 +52055,7 @@
         <v>30</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52112,10 +52118,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -52269,10 +52275,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -52405,10 +52411,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -52618,10 +52624,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="A2:B2 B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -52658,10 +52664,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -52871,10 +52877,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53084,10 +53090,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="A2:B2 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53297,10 +53303,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53510,10 +53516,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="A2:B2 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.83"/>
@@ -53699,10 +53705,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="A2:B2 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="21.57"/>
@@ -53874,10 +53880,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -54062,10 +54068,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -54231,10 +54237,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -54419,10 +54425,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="topLeft" activeCell="O1" activeCellId="1" sqref="A2:B2 O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -54588,10 +54594,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -54757,10 +54763,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="A2:B2 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -54944,10 +54950,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55113,10 +55119,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+      <selection pane="topLeft" activeCell="Q2" activeCellId="1" sqref="A2:B2 Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -55300,10 +55306,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55469,10 +55475,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="A2:B2 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="21.57"/>
@@ -55644,10 +55650,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -55832,10 +55838,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="A2:B2 R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56001,10 +56007,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+      <selection pane="topLeft" activeCell="Z2" activeCellId="1" sqref="A2:B2 Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56189,10 +56195,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="A2:B2 W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56358,10 +56364,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+      <selection pane="topLeft" activeCell="Z2" activeCellId="1" sqref="A2:B2 Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56546,10 +56552,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="A2:B2 W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56715,10 +56721,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+      <selection pane="topLeft" activeCell="Z2" activeCellId="1" sqref="A2:B2 Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56903,10 +56909,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="A2:B2 W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -57072,10 +57078,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+      <selection pane="topLeft" activeCell="Z2" activeCellId="1" sqref="A2:B2 Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -57259,10 +57265,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="A2:B2 W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -57428,10 +57434,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="A2:B2 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -57602,10 +57608,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="A2:B2 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -57789,10 +57795,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.92"/>
@@ -57945,10 +57951,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="A2:B2 W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.66"/>
@@ -58115,10 +58121,10 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -58245,10 +58251,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:B2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -58393,10 +58399,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -58556,10 +58562,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -58731,10 +58737,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -58894,10 +58900,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="1" sqref="A2:B2 E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59057,10 +59063,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -59232,10 +59238,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="A2:B2 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.83"/>
@@ -59421,10 +59427,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59584,10 +59590,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -59759,10 +59765,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
+      <selection pane="topLeft" activeCell="V2" activeCellId="1" sqref="A2:B2 V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59922,10 +59928,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
+      <selection pane="topLeft" activeCell="X2" activeCellId="1" sqref="A2:B2 X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60097,10 +60103,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60260,10 +60266,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60435,10 +60441,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60598,10 +60604,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60773,10 +60779,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60936,10 +60942,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -61111,10 +61117,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -61324,10 +61330,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61487,10 +61493,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -61662,10 +61668,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61825,10 +61831,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="A2:B2 M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62000,10 +62006,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62163,10 +62169,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62338,10 +62344,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62501,10 +62507,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62676,10 +62682,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62839,10 +62845,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63014,10 +63020,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -63239,10 +63245,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -63402,10 +63408,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63577,10 +63583,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -63778,10 +63784,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -63991,10 +63997,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -64192,10 +64198,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -64405,10 +64411,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -64600,10 +64606,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -64795,10 +64801,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -64990,10 +64996,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:B2 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
